--- a/listHD.xlsx
+++ b/listHD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -59,64 +59,49 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>HD56</t>
+    <t>HD47</t>
   </si>
   <si>
     <t>Đỗ Hoành Sáng</t>
   </si>
   <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>PGG03</t>
+  </si>
+  <si>
+    <t>Chuyển khoản</t>
+  </si>
+  <si>
+    <t>233578732235</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>HD46</t>
+  </si>
+  <si>
     <t>Khách Lẻ</t>
   </si>
   <si>
-    <t>PGG09</t>
-  </si>
-  <si>
     <t>Tiền mặt</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Đã thanh toán</t>
-  </si>
-  <si>
-    <t>HD55</t>
-  </si>
-  <si>
-    <t>Chuyển khoản</t>
+    <t>HD45</t>
   </si>
   <si>
     <t>Chưa thanh toán</t>
   </si>
   <si>
-    <t>HD53</t>
-  </si>
-  <si>
-    <t>PGG07</t>
-  </si>
-  <si>
-    <t>HD49</t>
-  </si>
-  <si>
-    <t>HD48</t>
-  </si>
-  <si>
-    <t>HD47</t>
-  </si>
-  <si>
-    <t>HD46</t>
-  </si>
-  <si>
     <t>HD44</t>
   </si>
   <si>
-    <t>Mã GG</t>
-  </si>
-  <si>
     <t>HD43</t>
-  </si>
-  <si>
-    <t>HD41</t>
   </si>
   <si>
     <t>HD39</t>
@@ -185,7 +170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -194,7 +179,7 @@
     <col min="1" max="1" width="3.94140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.71875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.4609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.28125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="8.98828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="15.90234375" customWidth="true" bestFit="true"/>
@@ -204,7 +189,7 @@
     <col min="11" max="11" width="20.09375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="13.01171875" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="13.7890625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="14.41796875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="16.10546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -257,7 +242,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57.0</v>
+        <v>48.0</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -272,22 +257,22 @@
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="G2" t="n">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="H2" t="n">
-        <v>240000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="I2" t="n">
-        <v>20000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="J2" t="n">
-        <v>220000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="K2" t="n">
-        <v>220000.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -304,7 +289,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56.0</v>
+        <v>47.0</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -313,75 +298,75 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="G3" t="n">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>40000.0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0</v>
+        <v>30000.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>10000.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>10000.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55.0</v>
+        <v>46.0</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="G4" t="n">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="H4" t="n">
-        <v>60000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>20000.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>40000.0</v>
+        <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>40000.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
@@ -390,54 +375,54 @@
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53.0</v>
+        <v>45.0</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>45343.0</v>
+        <v>45349.0</v>
       </c>
       <c r="G5" t="n">
-        <v>45343.0</v>
+        <v>45349.0</v>
       </c>
       <c r="H5" t="n">
-        <v>180000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="I5" t="n">
-        <v>20000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="J5" t="n">
-        <v>160000.0</v>
+        <v>270000.0</v>
       </c>
       <c r="K5" t="n">
-        <v>170000.0</v>
+        <v>270000.0</v>
       </c>
       <c r="L5" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
         <v>21</v>
@@ -445,330 +430,95 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>45343.0</v>
+        <v>45347.0</v>
       </c>
       <c r="G6" t="n">
-        <v>45343.0</v>
+        <v>45347.0</v>
       </c>
       <c r="H6" t="n">
-        <v>180000.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>20000.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>160000.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>170000.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="n">
-        <v>10000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>48.0</v>
+        <v>41.0</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>45343.0</v>
+        <v>45246.0</v>
       </c>
       <c r="G7" t="n">
-        <v>45343.0</v>
+        <v>45246.0</v>
       </c>
       <c r="H7" t="n">
-        <v>60000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="I7" t="n">
         <v>20000.0</v>
       </c>
       <c r="J7" t="n">
-        <v>40000.0</v>
+        <v>280000.0</v>
       </c>
       <c r="K7" t="n">
-        <v>200000.0</v>
+        <v>280000.0</v>
       </c>
       <c r="L7" t="n">
-        <v>160000.0</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="n">
-        <v>45343.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>45343.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>315000.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>295000.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>295000.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="n">
-        <v>45343.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>45343.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>180000.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>180000.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.3213124E7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.3033124E7</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="n">
-        <v>45343.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>45343.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>200000.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>140000.0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="n">
-        <v>45246.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>45343.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>180000.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>180000.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>200000.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="n">
-        <v>45246.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>45246.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>280000.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>280000.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
         <v>21</v>
       </c>
     </row>
